--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103806.8447662151</v>
+        <v>95644.18534970304</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2974519.110278104</v>
+        <v>2974519.110278105</v>
       </c>
     </row>
     <row r="11">
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>104.8891084057996</v>
+        <v>104.8891084058001</v>
       </c>
       <c r="V8" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="W8" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.60794153263969</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="V9" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>119.083910542461</v>
+        <v>29.1841301645329</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>46.05514816323295</v>
+        <v>46.05514816323315</v>
       </c>
       <c r="V10" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>224.4032842719481</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>328.5107569703938</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426295</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.51516921304759</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>20.7329779741545</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>214.2309914784211</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>401.5266111030784</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,7 +1700,7 @@
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>83.52738940623971</v>
+        <v>83.52738940623946</v>
       </c>
       <c r="H15" t="n">
         <v>31.62322353306971</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.188007759424055</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>40.81179447522066</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>156.9941536706401</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>183.4872045441984</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.17482029426228</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.40208394875285</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>24.83686707040881</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>372.0663625487451</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>249.9293611790113</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.17482029426228</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>149.6765928682915</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>24.83686707040836</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,13 +2326,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>204.0461120219734</v>
       </c>
       <c r="Y23" t="n">
-        <v>156.7012890994284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H24" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>30.1618958006553</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>24.95230525248441</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>168.4257624077806</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>48.14800738068081</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H27" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>5.033780699103314</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>130.2917056056569</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -2803,13 +2803,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>390.079879757898</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>127.928600974137</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H30" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>5.033780699103321</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>238.0377938995554</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>156.7012890994281</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>149.6157531058523</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H33" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>105.7674347857905</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>67.18009772486998</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>247.3873723991433</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735101</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>128.3640563204295</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H36" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>126.1205767941111</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>111.2461524850679</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>175.2848184896806</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735101</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>109.5540470185009</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H39" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>130.9036312963256</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>20.11185847776688</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>64.86176137893582</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>174.2271669386938</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H42" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>88.1097120998276</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>90.73611379905049</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>176.2703883121617</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
@@ -4039,10 +4039,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>410.5141049858048</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>37.69870921092599</v>
+        <v>157.107226184174</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.526712843396878</v>
+        <v>250.1002694948343</v>
       </c>
       <c r="C8" t="n">
-        <v>9.526712843396878</v>
+        <v>250.1002694948343</v>
       </c>
       <c r="D8" t="n">
-        <v>9.526712843396878</v>
+        <v>250.1002694948343</v>
       </c>
       <c r="E8" t="n">
-        <v>9.526712843396878</v>
+        <v>250.1002694948343</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396878</v>
+        <v>250.1002694948343</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396878</v>
+        <v>129.8134911691156</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396918</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585569</v>
+        <v>23.57954741585568</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558031</v>
+        <v>55.41632306558045</v>
       </c>
       <c r="K8" t="n">
-        <v>103.131396931807</v>
+        <v>103.1313969318073</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183096</v>
+        <v>162.3261653183101</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590932</v>
+        <v>228.1917507590941</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326581</v>
+        <v>295.1231102326594</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336424</v>
+        <v>358.3244950336439</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455671</v>
+        <v>412.2654147455688</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245014</v>
+        <v>452.7727990245033</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698439</v>
+        <v>476.3356421698459</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698439</v>
+        <v>476.3356421698459</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698439</v>
+        <v>476.3356421698459</v>
       </c>
       <c r="U8" t="n">
-        <v>370.3870478205513</v>
+        <v>370.3870478205529</v>
       </c>
       <c r="V8" t="n">
-        <v>250.1002694948332</v>
+        <v>250.1002694948343</v>
       </c>
       <c r="W8" t="n">
-        <v>129.813491169115</v>
+        <v>250.1002694948343</v>
       </c>
       <c r="X8" t="n">
-        <v>9.526712843396878</v>
+        <v>250.1002694948343</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.526712843396878</v>
+        <v>250.1002694948343</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.526712843396878</v>
+        <v>188.8274420459916</v>
       </c>
       <c r="C9" t="n">
-        <v>9.526712843396878</v>
+        <v>188.8274420459916</v>
       </c>
       <c r="D9" t="n">
-        <v>9.526712843396878</v>
+        <v>188.8274420459916</v>
       </c>
       <c r="E9" t="n">
-        <v>9.526712843396878</v>
+        <v>94.70702737294532</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396878</v>
+        <v>94.70702737294532</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396918</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396918</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114683</v>
+        <v>16.43678475114691</v>
       </c>
       <c r="J9" t="n">
-        <v>35.39855022437509</v>
+        <v>35.39855022437526</v>
       </c>
       <c r="K9" t="n">
-        <v>67.80722760369103</v>
+        <v>67.80722760369135</v>
       </c>
       <c r="L9" t="n">
-        <v>111.3846938193804</v>
+        <v>111.3846938193809</v>
       </c>
       <c r="M9" t="n">
-        <v>162.2375414767963</v>
+        <v>162.2375414767971</v>
       </c>
       <c r="N9" t="n">
-        <v>214.4363126943332</v>
+        <v>214.4363126943342</v>
       </c>
       <c r="O9" t="n">
-        <v>262.1879905006659</v>
+        <v>262.1879905006671</v>
       </c>
       <c r="P9" t="n">
-        <v>300.5129218025281</v>
+        <v>300.5129218025294</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.1321234335032</v>
+        <v>326.1321234335047</v>
       </c>
       <c r="R9" t="n">
-        <v>338.5931397298228</v>
+        <v>338.5931397298243</v>
       </c>
       <c r="S9" t="n">
-        <v>338.5931397298228</v>
+        <v>338.5931397298243</v>
       </c>
       <c r="T9" t="n">
-        <v>338.5931397298228</v>
+        <v>338.5931397298243</v>
       </c>
       <c r="U9" t="n">
-        <v>338.5931397298228</v>
+        <v>218.3063614041056</v>
       </c>
       <c r="V9" t="n">
-        <v>218.3063614041046</v>
+        <v>218.3063614041056</v>
       </c>
       <c r="W9" t="n">
-        <v>98.01958307838646</v>
+        <v>188.8274420459916</v>
       </c>
       <c r="X9" t="n">
-        <v>98.01958307838646</v>
+        <v>188.8274420459916</v>
       </c>
       <c r="Y9" t="n">
-        <v>98.01958307838646</v>
+        <v>188.8274420459916</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396918</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396918</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396918</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396918</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396918</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396918</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396918</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396918</v>
       </c>
       <c r="J10" t="n">
-        <v>21.42271513642511</v>
+        <v>21.4227151364252</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97150121137699</v>
+        <v>40.97150121137717</v>
       </c>
       <c r="L10" t="n">
-        <v>65.9872169758342</v>
+        <v>65.98721697583449</v>
       </c>
       <c r="M10" t="n">
-        <v>92.36278178728922</v>
+        <v>92.36278178728965</v>
       </c>
       <c r="N10" t="n">
-        <v>118.1111946198139</v>
+        <v>118.1111946198144</v>
       </c>
       <c r="O10" t="n">
-        <v>141.8940213720324</v>
+        <v>141.894021372033</v>
       </c>
       <c r="P10" t="n">
-        <v>162.2443382688367</v>
+        <v>162.2443382688375</v>
       </c>
       <c r="Q10" t="n">
-        <v>176.3338428491483</v>
+        <v>176.3338428491491</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3338428491483</v>
+        <v>176.3338428491491</v>
       </c>
       <c r="S10" t="n">
-        <v>176.3338428491483</v>
+        <v>176.3338428491491</v>
       </c>
       <c r="T10" t="n">
-        <v>176.3338428491483</v>
+        <v>176.3338428491491</v>
       </c>
       <c r="U10" t="n">
-        <v>129.813491169115</v>
+        <v>129.8134911691156</v>
       </c>
       <c r="V10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396918</v>
       </c>
       <c r="W10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396918</v>
       </c>
       <c r="X10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396918</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396918</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>475.073981139747</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="C11" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D11" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E11" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001353</v>
@@ -5044,16 +5044,16 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
         <v>1775.969506973259</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>2133.657593334658</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>1728.802138745691</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X11" t="n">
-        <v>1309.659675325001</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="Y11" t="n">
-        <v>901.3735516246547</v>
+        <v>1154.573267142144</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,19 +5126,19 @@
         <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987879</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.947661807679</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1517.87440598441</v>
+        <v>724.29078252242</v>
       </c>
       <c r="C13" t="n">
-        <v>1517.87440598441</v>
+        <v>724.29078252242</v>
       </c>
       <c r="D13" t="n">
-        <v>1517.87440598441</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E13" t="n">
-        <v>1517.87440598441</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F13" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K13" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M13" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N13" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540313</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S13" t="n">
-        <v>2325.46377016183</v>
+        <v>745.2331845165155</v>
       </c>
       <c r="T13" t="n">
-        <v>2083.216546065236</v>
+        <v>724.29078252242</v>
       </c>
       <c r="U13" t="n">
-        <v>1804.829914113979</v>
+        <v>724.29078252242</v>
       </c>
       <c r="V13" t="n">
-        <v>1517.87440598441</v>
+        <v>724.29078252242</v>
       </c>
       <c r="W13" t="n">
-        <v>1517.87440598441</v>
+        <v>724.29078252242</v>
       </c>
       <c r="X13" t="n">
-        <v>1517.87440598441</v>
+        <v>724.29078252242</v>
       </c>
       <c r="Y13" t="n">
-        <v>1517.87440598441</v>
+        <v>724.29078252242</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>701.7439652528254</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C14" t="n">
-        <v>263.6014924362487</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D14" t="n">
-        <v>263.6014924362487</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E14" t="n">
-        <v>263.6014924362487</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895472</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895472</v>
@@ -5278,10 +5278,10 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
         <v>805.440802286702</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447736</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447736</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.472122858769</v>
+        <v>1122.013229783222</v>
       </c>
       <c r="X14" t="n">
-        <v>1536.32965943808</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y14" t="n">
-        <v>1128.043535737733</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C15" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030328</v>
       </c>
       <c r="D15" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E15" t="n">
-        <v>930.5806015906844</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F15" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G15" t="n">
-        <v>762.8256627965027</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>730.8830127630986</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>765.0997489345746</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>858.9930882810417</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>1019.471760335212</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>1235.255139210234</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M15" t="n">
-        <v>1487.064164512931</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N15" t="n">
-        <v>1745.537825434251</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
-        <v>2171.765028813588</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q15" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R15" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S15" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T15" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U15" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V15" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>1628.904882342198</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X15" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y15" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1559.098440807865</v>
+        <v>745.2331845165155</v>
       </c>
       <c r="C16" t="n">
-        <v>1559.098440807865</v>
+        <v>745.2331845165155</v>
       </c>
       <c r="D16" t="n">
-        <v>1559.098440807865</v>
+        <v>579.3551917180382</v>
       </c>
       <c r="E16" t="n">
-        <v>1559.098440807865</v>
+        <v>409.5971879687755</v>
       </c>
       <c r="F16" t="n">
-        <v>1559.098440807865</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G16" t="n">
-        <v>1559.098440807865</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
-        <v>1559.098440807865</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>1517.874405984409</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>1576.780069686592</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1797.450971872448</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M16" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N16" t="n">
-        <v>2055.554276014867</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.320157362629</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540313</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447736</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447736</v>
+        <v>745.2331845165155</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>745.2331845165155</v>
       </c>
       <c r="U16" t="n">
-        <v>2118.080353351143</v>
+        <v>745.2331845165155</v>
       </c>
       <c r="V16" t="n">
-        <v>1831.124845221573</v>
+        <v>745.2331845165155</v>
       </c>
       <c r="W16" t="n">
-        <v>1559.098440807865</v>
+        <v>745.2331845165155</v>
       </c>
       <c r="X16" t="n">
-        <v>1559.098440807865</v>
+        <v>745.2331845165155</v>
       </c>
       <c r="Y16" t="n">
-        <v>1559.098440807865</v>
+        <v>745.2331845165155</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.2588091910869</v>
+        <v>1069.563719167969</v>
       </c>
       <c r="C17" t="n">
-        <v>483.1163363745102</v>
+        <v>1069.563719167969</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895472</v>
+        <v>633.6539343424138</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895472</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
         <v>47.20655154895472</v>
@@ -5512,22 +5512,22 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
         <v>1775.969506973259</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W17" t="n">
-        <v>2174.986966797031</v>
+        <v>1915.005753073566</v>
       </c>
       <c r="X17" t="n">
-        <v>1755.844503376341</v>
+        <v>1495.863289652877</v>
       </c>
       <c r="Y17" t="n">
-        <v>1347.558379675995</v>
+        <v>1495.863289652877</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,25 +5585,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H18" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5612,13 +5612,13 @@
         <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R18" t="n">
-        <v>1676.651116233591</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S18" t="n">
         <v>1632.030085633326</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1517.87440598441</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C19" t="n">
-        <v>1517.87440598441</v>
+        <v>572.6714729997408</v>
       </c>
       <c r="D19" t="n">
-        <v>1517.87440598441</v>
+        <v>406.7934802012635</v>
       </c>
       <c r="E19" t="n">
-        <v>1517.87440598441</v>
+        <v>237.0354764520008</v>
       </c>
       <c r="F19" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M19" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N19" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447736</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T19" t="n">
-        <v>2360.327577447736</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U19" t="n">
-        <v>2081.940945496479</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.985437366909</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W19" t="n">
-        <v>1794.985437366909</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X19" t="n">
-        <v>1549.593682700322</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y19" t="n">
-        <v>1549.593682700322</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1173.712709371906</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C20" t="n">
-        <v>735.5702365553298</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D20" t="n">
-        <v>299.6604517297743</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E20" t="n">
         <v>47.20655154895472</v>
@@ -5752,19 +5752,19 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L20" t="n">
         <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
         <v>1775.969506973259</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V20" t="n">
-        <v>1997.710627381563</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W20" t="n">
-        <v>1592.855172792596</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="X20" t="n">
-        <v>1173.712709371906</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="Y20" t="n">
-        <v>1173.712709371906</v>
+        <v>1294.948377842332</v>
       </c>
     </row>
     <row r="21">
@@ -5849,13 +5849,13 @@
         <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>1676.651116233591</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
         <v>1632.030085633326</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>198.3950291936936</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="C22" t="n">
-        <v>47.20655154895472</v>
+        <v>572.6714729997403</v>
       </c>
       <c r="D22" t="n">
-        <v>47.20655154895472</v>
+        <v>406.793480201263</v>
       </c>
       <c r="E22" t="n">
-        <v>47.20655154895472</v>
+        <v>237.0354764520003</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895472</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
         <v>47.20655154895472</v>
@@ -5937,25 +5937,25 @@
         <v>889.6597230122809</v>
       </c>
       <c r="S22" t="n">
-        <v>889.6597230122809</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="T22" t="n">
-        <v>889.6597230122809</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="U22" t="n">
-        <v>889.6597230122809</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="V22" t="n">
-        <v>889.6597230122809</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="W22" t="n">
-        <v>617.6333185985725</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="X22" t="n">
-        <v>617.6333185985725</v>
+        <v>745.2331845165154</v>
       </c>
       <c r="Y22" t="n">
-        <v>390.2136479126808</v>
+        <v>745.2331845165154</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1782.900983623584</v>
+        <v>1320.76150051161</v>
       </c>
       <c r="C23" t="n">
-        <v>1344.758510807007</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D23" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
         <v>47.20655154895472</v>
@@ -5986,22 +5986,22 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
         <v>1775.969506973259</v>
@@ -6019,22 +6019,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447736</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447736</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447736</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447736</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X23" t="n">
-        <v>1941.185114027047</v>
+        <v>1320.76150051161</v>
       </c>
       <c r="Y23" t="n">
-        <v>1782.900983623584</v>
+        <v>1320.76150051161</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
-        <v>858.9930882810429</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L24" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M24" t="n">
-        <v>1487.064164512933</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N24" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P24" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q24" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R24" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S24" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T24" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U24" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V24" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>864.4553742723976</v>
+        <v>419.9928282297959</v>
       </c>
       <c r="C25" t="n">
-        <v>691.8936627556226</v>
+        <v>247.4311167130208</v>
       </c>
       <c r="D25" t="n">
-        <v>526.0156699571453</v>
+        <v>247.4311167130208</v>
       </c>
       <c r="E25" t="n">
-        <v>356.2576662078826</v>
+        <v>77.67311296375806</v>
       </c>
       <c r="F25" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G25" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H25" t="n">
         <v>47.20655154895472</v>
@@ -6162,37 +6162,37 @@
         <v>584.8864215794127</v>
       </c>
       <c r="O25" t="n">
-        <v>702.6523029271744</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P25" t="n">
-        <v>803.4213591048579</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q25" t="n">
-        <v>873.1886303355135</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R25" t="n">
-        <v>889.6597230122809</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S25" t="n">
-        <v>889.6597230122809</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T25" t="n">
-        <v>864.4553742723976</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="U25" t="n">
-        <v>864.4553742723976</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="V25" t="n">
-        <v>864.4553742723976</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="W25" t="n">
-        <v>864.4553742723976</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="X25" t="n">
-        <v>864.4553742723976</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="Y25" t="n">
-        <v>864.4553742723976</v>
+        <v>419.9928282297959</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2052.622535079674</v>
+        <v>1514.885543542139</v>
       </c>
       <c r="C26" t="n">
-        <v>1614.480062263097</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D26" t="n">
-        <v>1178.570277437541</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E26" t="n">
-        <v>744.7955325958366</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
         <v>1775.969506973259</v>
@@ -6256,22 +6256,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T26" t="n">
-        <v>2311.693226558159</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U26" t="n">
-        <v>2052.622535079674</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V26" t="n">
-        <v>2052.622535079674</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W26" t="n">
-        <v>2052.622535079674</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X26" t="n">
-        <v>2052.622535079674</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="Y26" t="n">
-        <v>2052.622535079674</v>
+        <v>1941.185114027047</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
         <v>335.7952991210681</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M27" t="n">
-        <v>803.3877032987884</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.29117851774595</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C28" t="n">
-        <v>52.29117851774595</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="D28" t="n">
-        <v>52.29117851774595</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E28" t="n">
-        <v>52.29117851774595</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F28" t="n">
-        <v>52.29117851774595</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G28" t="n">
-        <v>52.29117851774595</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H28" t="n">
-        <v>52.29117851774595</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I28" t="n">
         <v>47.20655154895472</v>
@@ -6399,37 +6399,37 @@
         <v>584.8864215794127</v>
       </c>
       <c r="O28" t="n">
-        <v>702.6523029271744</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P28" t="n">
-        <v>803.4213591048579</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q28" t="n">
-        <v>873.1886303355135</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R28" t="n">
-        <v>889.6597230122809</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S28" t="n">
-        <v>889.6597230122809</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T28" t="n">
-        <v>889.6597230122809</v>
+        <v>889.659723012281</v>
       </c>
       <c r="U28" t="n">
-        <v>611.2730910610239</v>
+        <v>889.659723012281</v>
       </c>
       <c r="V28" t="n">
-        <v>324.3175829314544</v>
+        <v>889.659723012281</v>
       </c>
       <c r="W28" t="n">
-        <v>52.29117851774595</v>
+        <v>889.659723012281</v>
       </c>
       <c r="X28" t="n">
-        <v>52.29117851774595</v>
+        <v>889.659723012281</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.29117851774595</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2148.556325916848</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="C29" t="n">
-        <v>1710.413853100271</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D29" t="n">
-        <v>1274.504068274716</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E29" t="n">
-        <v>840.7293234330109</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F29" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895471</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M29" t="n">
         <v>1131.588690455489</v>
@@ -6496,19 +6496,19 @@
         <v>2148.556325916848</v>
       </c>
       <c r="U29" t="n">
-        <v>2148.556325916848</v>
+        <v>2019.335516852064</v>
       </c>
       <c r="V29" t="n">
-        <v>2148.556325916848</v>
+        <v>2019.335516852064</v>
       </c>
       <c r="W29" t="n">
-        <v>2148.556325916848</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="X29" t="n">
-        <v>2148.556325916848</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="Y29" t="n">
-        <v>2148.556325916848</v>
+        <v>1614.480062263097</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
-        <v>175.3166270668988</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M30" t="n">
-        <v>803.3877032987884</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P30" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q30" t="n">
         <v>1614.947661807679</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.29117851774595</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="C31" t="n">
-        <v>52.29117851774595</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="D31" t="n">
-        <v>52.29117851774595</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="E31" t="n">
-        <v>52.29117851774595</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895471</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895471</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
         <v>106.1122152511378</v>
@@ -6636,37 +6636,37 @@
         <v>584.8864215794127</v>
       </c>
       <c r="O31" t="n">
-        <v>702.6523029271744</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P31" t="n">
-        <v>803.4213591048579</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q31" t="n">
-        <v>873.1886303355135</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R31" t="n">
-        <v>889.6597230122809</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S31" t="n">
-        <v>889.6597230122809</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T31" t="n">
-        <v>889.6597230122809</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="U31" t="n">
-        <v>611.2730910610239</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="V31" t="n">
-        <v>324.3175829314544</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="W31" t="n">
-        <v>52.29117851774595</v>
+        <v>406.9702828555306</v>
       </c>
       <c r="X31" t="n">
-        <v>52.29117851774595</v>
+        <v>406.9702828555306</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.29117851774595</v>
+        <v>179.5506121696388</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J32" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6715,7 +6715,7 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
         <v>2043.069798152528</v>
@@ -6724,28 +6724,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W32" t="n">
-        <v>2202.043447044273</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X32" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y32" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
         <v>341.0245550495863</v>
@@ -6770,34 +6770,34 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M33" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
         <v>1614.947661807679</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.20655154895472</v>
+        <v>662.2400523263896</v>
       </c>
       <c r="C34" t="n">
-        <v>47.20655154895472</v>
+        <v>489.6783408096145</v>
       </c>
       <c r="D34" t="n">
-        <v>47.20655154895472</v>
+        <v>323.8003480111372</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895472</v>
+        <v>154.0423442618745</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>326.7831174369939</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M34" t="n">
-        <v>457.3875097755233</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N34" t="n">
-        <v>584.8864215794127</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O34" t="n">
-        <v>702.6523029271744</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P34" t="n">
-        <v>803.4213591048579</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q34" t="n">
-        <v>873.1886303355135</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R34" t="n">
-        <v>889.6597230122809</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S34" t="n">
-        <v>889.6597230122809</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T34" t="n">
-        <v>647.4124989156875</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U34" t="n">
-        <v>579.5538143451117</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V34" t="n">
-        <v>292.5983062155423</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W34" t="n">
-        <v>292.5983062155423</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X34" t="n">
-        <v>47.20655154895472</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.20655154895472</v>
+        <v>662.2400523263896</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>724.9602158863564</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C35" t="n">
-        <v>724.9602158863564</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>724.9602158863564</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>724.9602158863564</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>297.0927862955642</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G35" t="n">
-        <v>297.0927862955642</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
         <v>512.3249274228015</v>
@@ -6973,16 +6973,16 @@
         <v>2319.861207662533</v>
       </c>
       <c r="V35" t="n">
-        <v>1957.244257596359</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W35" t="n">
-        <v>1552.388803007392</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="X35" t="n">
-        <v>1133.246339586703</v>
+        <v>1771.058081291915</v>
       </c>
       <c r="Y35" t="n">
-        <v>724.9602158863564</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="36">
@@ -7010,13 +7010,13 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
         <v>335.7952991210681</v>
@@ -7025,7 +7025,7 @@
         <v>551.5786779960904</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7034,10 +7034,10 @@
         <v>1298.314267034638</v>
       </c>
       <c r="P36" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R36" t="n">
         <v>1676.651116233592</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="C37" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="D37" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E37" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F37" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
         <v>106.1122152511378</v>
@@ -7110,37 +7110,37 @@
         <v>584.8864215794127</v>
       </c>
       <c r="O37" t="n">
-        <v>702.6523029271744</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P37" t="n">
-        <v>803.4213591048579</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q37" t="n">
-        <v>873.1886303355135</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R37" t="n">
-        <v>889.6597230122809</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S37" t="n">
-        <v>889.6597230122809</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T37" t="n">
-        <v>777.2898720172628</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="U37" t="n">
-        <v>498.9032400660058</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="V37" t="n">
-        <v>211.9477319364363</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="W37" t="n">
-        <v>211.9477319364363</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="X37" t="n">
-        <v>211.9477319364363</v>
+        <v>402.0207442491001</v>
       </c>
       <c r="Y37" t="n">
-        <v>211.9477319364363</v>
+        <v>174.6010735632083</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>662.40439657733</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>224.2619237607533</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>47.20655154895472</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>47.20655154895472</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
         <v>47.20655154895472</v>
@@ -7174,13 +7174,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867021</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
@@ -7204,22 +7204,22 @@
         <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U38" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V38" t="n">
-        <v>1486.402314586986</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W38" t="n">
-        <v>1081.546859998019</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X38" t="n">
-        <v>662.40439657733</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y38" t="n">
-        <v>662.40439657733</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
-        <v>175.3166270668988</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987884</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.0207442490999</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="C40" t="n">
-        <v>402.0207442490999</v>
+        <v>515.1866087173789</v>
       </c>
       <c r="D40" t="n">
-        <v>402.0207442490999</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="E40" t="n">
-        <v>232.2627404998372</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F40" t="n">
-        <v>232.2627404998372</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G40" t="n">
-        <v>67.52156011235562</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
         <v>47.20655154895472</v>
@@ -7347,37 +7347,37 @@
         <v>584.8864215794127</v>
       </c>
       <c r="O40" t="n">
-        <v>702.6523029271744</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P40" t="n">
-        <v>803.4213591048579</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q40" t="n">
-        <v>873.1886303355135</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R40" t="n">
-        <v>889.6597230122809</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S40" t="n">
-        <v>889.6597230122809</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T40" t="n">
-        <v>647.4124989156875</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="U40" t="n">
-        <v>647.4124989156875</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="V40" t="n">
-        <v>647.4124989156875</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="W40" t="n">
-        <v>647.4124989156875</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="X40" t="n">
-        <v>402.0207442490999</v>
+        <v>647.4124989156876</v>
       </c>
       <c r="Y40" t="n">
-        <v>402.0207442490999</v>
+        <v>647.4124989156876</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>546.4982270764533</v>
+        <v>1312.719145276847</v>
       </c>
       <c r="C41" t="n">
-        <v>546.4982270764533</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="D41" t="n">
-        <v>546.4982270764533</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E41" t="n">
-        <v>112.7234822347485</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895471</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L41" t="n">
         <v>805.440802286702</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U41" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V41" t="n">
-        <v>1785.939375850674</v>
+        <v>2143.874170350721</v>
       </c>
       <c r="W41" t="n">
-        <v>1381.083921261708</v>
+        <v>1739.018715761754</v>
       </c>
       <c r="X41" t="n">
-        <v>1381.083921261708</v>
+        <v>1739.018715761754</v>
       </c>
       <c r="Y41" t="n">
-        <v>972.7977975613611</v>
+        <v>1739.018715761754</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280534</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.70101626373</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906835</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068452</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.825662796502</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127630982</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345743</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810414</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335212</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210234</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512931</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434251</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813588</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021822</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723122</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547003</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609003</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342197</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581077</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360297</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.20655154895471</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="C43" t="n">
-        <v>47.20655154895471</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="D43" t="n">
-        <v>47.20655154895471</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="E43" t="n">
-        <v>47.20655154895471</v>
+        <v>477.6544951664252</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895471</v>
+        <v>300.9474411281814</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895471</v>
+        <v>136.2062607406998</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895471</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
         <v>106.1122152511378</v>
@@ -7575,46 +7575,46 @@
         <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>326.7831174369939</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M43" t="n">
-        <v>457.3875097755233</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N43" t="n">
-        <v>584.8864215794127</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O43" t="n">
-        <v>702.6523029271744</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P43" t="n">
-        <v>803.4213591048579</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q43" t="n">
-        <v>873.1886303355135</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R43" t="n">
-        <v>889.6597230122809</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S43" t="n">
-        <v>889.6597230122809</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T43" t="n">
-        <v>889.6597230122809</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U43" t="n">
-        <v>798.0070828112198</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="V43" t="n">
-        <v>511.0515746816503</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="W43" t="n">
-        <v>239.0251702679418</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="X43" t="n">
-        <v>239.0251702679418</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="Y43" t="n">
-        <v>239.0251702679418</v>
+        <v>647.4124989156879</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>919.1237692072363</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="C44" t="n">
-        <v>480.9812963906596</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="D44" t="n">
-        <v>480.9812963906596</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E44" t="n">
-        <v>47.20655154895472</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
         <v>1775.969506973259</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2101.25688596925</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>1738.639935903077</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W44" t="n">
-        <v>1333.78448131411</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X44" t="n">
-        <v>919.1237692072363</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y44" t="n">
-        <v>919.1237692072363</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R45" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S45" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T45" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U45" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V45" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>85.28605580241532</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="C46" t="n">
-        <v>85.28605580241532</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="D46" t="n">
-        <v>85.28605580241532</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="E46" t="n">
-        <v>85.28605580241532</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895472</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>326.7831174369939</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M46" t="n">
-        <v>457.3875097755233</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N46" t="n">
-        <v>584.8864215794127</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O46" t="n">
-        <v>702.6523029271744</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P46" t="n">
-        <v>803.4213591048579</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q46" t="n">
-        <v>873.1886303355135</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R46" t="n">
-        <v>889.6597230122809</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S46" t="n">
-        <v>889.6597230122809</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T46" t="n">
-        <v>889.6597230122809</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U46" t="n">
-        <v>889.6597230122809</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V46" t="n">
-        <v>602.7042148827113</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="W46" t="n">
-        <v>330.6778104690028</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="X46" t="n">
-        <v>85.28605580241532</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.28605580241532</v>
+        <v>502.9859604199224</v>
       </c>
     </row>
   </sheetData>
@@ -23035,10 +23035,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.0049566522158</v>
+        <v>277.9210461097543</v>
       </c>
       <c r="H8" t="n">
-        <v>282.3584801445919</v>
+        <v>163.2745696021304</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796773</v>
+        <v>74.1812531179677</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
       </c>
       <c r="U8" t="n">
-        <v>151.7106595374934</v>
+        <v>151.710659537493</v>
       </c>
       <c r="V8" t="n">
-        <v>239.9068700230508</v>
+        <v>239.9068700230503</v>
       </c>
       <c r="W8" t="n">
-        <v>281.7229895006161</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>295.8671282440214</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.48292053632584</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
@@ -23108,16 +23108,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809191</v>
+        <v>39.3603752680919</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,19 +23150,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656963</v>
+        <v>59.05530966656962</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5598441976481</v>
+        <v>55.47593365518667</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221615967</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167695</v>
+        <v>154.285396559605</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -23199,7 +23199,7 @@
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.6621924374279</v>
+        <v>82.66219243742788</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616406</v>
+        <v>13.56162857616403</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
@@ -23235,10 +23235,10 @@
         <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>229.5842520369624</v>
+        <v>229.5842520369622</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058129</v>
+        <v>165.0020425058124</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23269,13 +23269,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>134.5874962935636</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>86.4402818160886</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>108.4671038977602</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.0917738814729</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23506,13 +23506,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>209.3577638164633</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>13.42442768340396</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>172.7519757384373</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21.65253922289377</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -23734,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>272.4428437226476</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23794,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>217.3196954988786</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>158.4983485830444</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>150.1031164274525</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>49.97021223131361</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>179.5076362142765</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>21.15950153331582</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>150.103116427453</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -24189,13 +24189,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735101</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>210.904926764509</v>
       </c>
       <c r="Y23" t="n">
-        <v>247.5019733639147</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>144.778087697206</v>
       </c>
       <c r="G25" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811444</v>
@@ -24417,7 +24417,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>214.872446603143</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
@@ -24432,7 +24432,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>265.3352856806303</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735101</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>161.5055316348981</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24508,7 +24508,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
@@ -24621,7 +24621,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>57.43055299901113</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>94.85376837337591</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>33.50887553698635</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735101</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>128.5513835895642</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24849,13 +24849,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>169.906202798758</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811444</v>
@@ -24891,22 +24891,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>31.26834647001596</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735101</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -24979,10 +24979,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>244.1056109436489</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>265.3352856806301</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25077,16 +25077,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>69.17254871207081</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
@@ -25095,7 +25095,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>208.4226679068744</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>19.6369635423853</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>272.4428437226475</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>63.77985573768618</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -25326,7 +25326,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -25365,22 +25365,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>128.5785993705596</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>256.2658684876193</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>305.3969917679815</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25551,10 +25551,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>39.93246310528176</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>110.9087615367104</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811444</v>
@@ -25614,7 +25614,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>358.7269939159485</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>184.7636136268179</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -25794,19 +25794,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>42.91090791464966</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>184.8666518326939</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -25867,19 +25867,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>255.2802986651382</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>4.436933800677593</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26034,16 +26034,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>137.2412742869354</v>
+        <v>17.83275731368732</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>67773.45527479524</v>
+        <v>67773.45527479555</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>335582.4892562977</v>
+        <v>335582.4892562978</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>335582.4892562977</v>
+        <v>335582.4892562978</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>335582.4892562977</v>
+        <v>335582.4892562978</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>335582.4892562976</v>
+        <v>335582.4892562978</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>335582.4892562976</v>
+        <v>335582.4892562977</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>335582.4892562977</v>
+        <v>335582.4892562978</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>335582.4892562976</v>
+        <v>335582.4892562978</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>335582.4892562979</v>
+        <v>335582.4892562978</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>335582.4892562976</v>
+        <v>335582.4892562978</v>
       </c>
     </row>
     <row r="16">
@@ -26319,22 +26319,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>31062.83366761449</v>
+        <v>31062.83366761462</v>
       </c>
       <c r="E2" t="n">
+        <v>153808.6409091364</v>
+      </c>
+      <c r="F2" t="n">
+        <v>153808.6409091364</v>
+      </c>
+      <c r="G2" t="n">
         <v>153808.6409091365</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>153808.6409091365</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>153808.6409091364</v>
-      </c>
-      <c r="H2" t="n">
-        <v>153808.6409091364</v>
-      </c>
-      <c r="I2" t="n">
-        <v>153808.6409091366</v>
       </c>
       <c r="J2" t="n">
         <v>153808.6409091365</v>
@@ -26343,7 +26343,7 @@
         <v>153808.6409091365</v>
       </c>
       <c r="L2" t="n">
-        <v>153808.6409091364</v>
+        <v>153808.6409091365</v>
       </c>
       <c r="M2" t="n">
         <v>153808.6409091365</v>
@@ -26355,7 +26355,7 @@
         <v>153808.6409091365</v>
       </c>
       <c r="P2" t="n">
-        <v>153808.6409091364</v>
+        <v>153808.6409091365</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730579</v>
+        <v>117708.4675730584</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180441</v>
+        <v>439858.2450180436</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310202</v>
+        <v>30139.06600310215</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.581559748</v>
+        <v>117374.5815597478</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>83.50572484016314</v>
+        <v>83.50572484016351</v>
       </c>
       <c r="E4" t="n">
         <v>414.2905444231689</v>
@@ -26432,34 +26432,34 @@
         <v>414.2905444231689</v>
       </c>
       <c r="G4" t="n">
-        <v>414.2905444231687</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="H4" t="n">
-        <v>414.2905444231687</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="I4" t="n">
-        <v>414.2905444231687</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="J4" t="n">
-        <v>414.2905444231688</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="K4" t="n">
-        <v>414.2905444231688</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="L4" t="n">
-        <v>414.2905444231688</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="M4" t="n">
-        <v>414.2905444231688</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="N4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="O4" t="n">
-        <v>414.2905444231688</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="P4" t="n">
-        <v>414.2905444231688</v>
+        <v>414.2905444231689</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239237</v>
+        <v>42922.56227239241</v>
       </c>
       <c r="E5" t="n">
         <v>46051.08120963781</v>
@@ -26484,34 +26484,34 @@
         <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
         <v>46051.0812096378</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-129651.701902676</v>
+        <v>-130850.8755039132</v>
       </c>
       <c r="E6" t="n">
-        <v>-332514.9758629686</v>
+        <v>-333156.2139767435</v>
       </c>
       <c r="F6" t="n">
-        <v>107343.2691550755</v>
+        <v>106702.0310413001</v>
       </c>
       <c r="G6" t="n">
-        <v>107343.2691550755</v>
+        <v>106702.0310413002</v>
       </c>
       <c r="H6" t="n">
-        <v>107343.2691550755</v>
+        <v>106702.0310413001</v>
       </c>
       <c r="I6" t="n">
-        <v>107343.2691550756</v>
+        <v>106702.0310413001</v>
       </c>
       <c r="J6" t="n">
-        <v>107343.2691550755</v>
+        <v>106702.0310413001</v>
       </c>
       <c r="K6" t="n">
-        <v>107343.2691550755</v>
+        <v>106702.0310413001</v>
       </c>
       <c r="L6" t="n">
-        <v>77204.20315197346</v>
+        <v>76562.96503819802</v>
       </c>
       <c r="M6" t="n">
-        <v>-10031.31240467246</v>
+        <v>-10672.55051844767</v>
       </c>
       <c r="N6" t="n">
-        <v>107343.2691550755</v>
+        <v>106702.0310413001</v>
       </c>
       <c r="O6" t="n">
-        <v>107343.2691550755</v>
+        <v>106702.0310413001</v>
       </c>
       <c r="P6" t="n">
-        <v>107343.2691550755</v>
+        <v>106702.0310413002</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480479</v>
+        <v>94.25048217480521</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
         <v>466.701928093221</v>
       </c>
       <c r="I3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
         <v>590.081894361934</v>
@@ -26816,22 +26816,22 @@
         <v>590.081894361934</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619339</v>
+        <v>590.081894361934</v>
       </c>
       <c r="L4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="M4" t="n">
         <v>590.081894361934</v>
-      </c>
-      <c r="M4" t="n">
-        <v>590.0818943619339</v>
       </c>
       <c r="N4" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619339</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480479</v>
+        <v>94.25048217480521</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184164</v>
+        <v>372.4514459184159</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194732</v>
+        <v>470.9979838194726</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424611</v>
+        <v>119.0839105424616</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194731</v>
+        <v>470.9979838194724</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424615</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194732</v>
+        <v>470.9979838194726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529838</v>
+        <v>0.3788964107529855</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623996</v>
+        <v>3.880372866624014</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555442</v>
+        <v>14.60740387555449</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214608</v>
+        <v>32.15835924214623</v>
       </c>
       <c r="K8" t="n">
-        <v>48.1970443093199</v>
+        <v>48.19704430932012</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990154</v>
+        <v>59.79269533990181</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462992</v>
+        <v>66.53089438463022</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168183</v>
+        <v>67.60743381168214</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725685</v>
+        <v>63.83978262725714</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679255</v>
+        <v>54.4857774867928</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670131</v>
+        <v>40.91654977670149</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196214</v>
+        <v>23.80085166196224</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033627</v>
+        <v>8.634101960033666</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071187</v>
+        <v>1.658619038071195</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0303117128602387</v>
+        <v>0.03031171286023883</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250518</v>
+        <v>0.2027274522250527</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857738</v>
+        <v>1.957920393857746</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888846</v>
+        <v>6.979870613888878</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780632</v>
+        <v>19.15329845780641</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688479</v>
+        <v>32.73603775688494</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211049</v>
+        <v>44.01764264211069</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852686</v>
+        <v>51.36651278526883</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286556</v>
+        <v>52.7260315328658</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619467</v>
+        <v>48.23401798619489</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006275</v>
+        <v>38.71205182006292</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542942</v>
+        <v>25.87798144542954</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779752</v>
+        <v>12.58688514779758</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531114</v>
+        <v>3.76557350953113</v>
       </c>
       <c r="T9" t="n">
-        <v>0.817133897345713</v>
+        <v>0.8171338973457166</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0133373323832271</v>
+        <v>0.01333733238322716</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889922</v>
+        <v>0.169959885888993</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540314</v>
+        <v>1.511097894540321</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643513</v>
+        <v>5.111157295643536</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235175</v>
+        <v>12.0161639323518</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055745</v>
+        <v>19.74624856055755</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207799</v>
+        <v>25.26839976207811</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803539</v>
+        <v>26.64198465803551</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063098</v>
+        <v>26.0084978106311</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0230573254732</v>
+        <v>24.02305732547331</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333774</v>
+        <v>20.55587565333784</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839552</v>
+        <v>14.23182280839559</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517776</v>
+        <v>7.64201450551781</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083618</v>
+        <v>2.961937284083632</v>
       </c>
       <c r="T10" t="n">
-        <v>0.726192239707512</v>
+        <v>0.7261922397075153</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308678</v>
+        <v>0.00927053923030872</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31931,28 +31931,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
@@ -32019,19 +32019,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
@@ -32110,7 +32110,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116989</v>
@@ -32168,16 +32168,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,19 +32226,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062832</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766673</v>
@@ -32247,28 +32247,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32569,7 +32569,7 @@
         <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002368</v>
@@ -32709,7 +32709,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062837</v>
@@ -32727,7 +32727,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.607267687947</v>
@@ -32736,10 +32736,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.150095092452091</v>
@@ -32782,25 +32782,25 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562393</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742732</v>
@@ -32809,7 +32809,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233622</v>
@@ -32818,7 +32818,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356904</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
         <v>131.9236286247772</v>
@@ -32888,19 +32888,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,7 +32946,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062837</v>
@@ -32964,7 +32964,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.607267687947</v>
@@ -32973,10 +32973,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.150095092452091</v>
@@ -33019,25 +33019,25 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646698</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742732</v>
@@ -33046,7 +33046,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
         <v>62.32672164233622</v>
@@ -33055,7 +33055,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356904</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
         <v>131.9236286247772</v>
@@ -33125,19 +33125,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,7 +33183,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062837</v>
@@ -33201,7 +33201,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.607267687947</v>
@@ -33210,10 +33210,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.150095092452091</v>
@@ -33256,19 +33256,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562422</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108054</v>
@@ -33283,7 +33283,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -33292,7 +33292,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356904</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
         <v>131.9236286247772</v>
@@ -33362,19 +33362,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062837</v>
@@ -33432,28 +33432,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002376</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33657,7 +33657,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062837</v>
@@ -33675,7 +33675,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.607267687947</v>
@@ -33684,10 +33684,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.150095092452091</v>
@@ -33730,19 +33730,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108054</v>
@@ -33754,19 +33754,19 @@
         <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233713</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356904</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
@@ -33836,19 +33836,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33894,7 +33894,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062837</v>
@@ -33912,19 +33912,19 @@
         <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405459</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.150095092452091</v>
@@ -33967,19 +33967,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.8417569156242</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K39" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108054</v>
@@ -33994,7 +33994,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
         <v>62.32672164233622</v>
@@ -34003,7 +34003,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356904</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
@@ -34073,19 +34073,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062837</v>
@@ -34143,28 +34143,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233691</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062837</v>
@@ -34380,28 +34380,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917236</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642302</v>
+        <v>14.19478239642309</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214608</v>
+        <v>32.15835924214623</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931991</v>
+        <v>48.19704430932011</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990156</v>
+        <v>59.7926953399018</v>
       </c>
       <c r="M8" t="n">
-        <v>66.5308943846299</v>
+        <v>66.53089438463027</v>
       </c>
       <c r="N8" t="n">
-        <v>67.6074338116818</v>
+        <v>67.60743381168211</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725691</v>
+        <v>63.83978262725714</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679253</v>
+        <v>54.48577748679281</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670129</v>
+        <v>40.91654977670152</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196216</v>
+        <v>23.80085166196221</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888846</v>
+        <v>6.979870613888876</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780632</v>
+        <v>19.15329845780641</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688479</v>
+        <v>32.73603775688494</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211049</v>
+        <v>44.01764264211069</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526861</v>
+        <v>51.36651278526884</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286556</v>
+        <v>52.72603153286579</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619466</v>
+        <v>48.23401798619489</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006275</v>
+        <v>38.71205182006292</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542944</v>
+        <v>25.87798144542955</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779755</v>
+        <v>12.5868851477976</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235175</v>
+        <v>12.0161639323518</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055745</v>
+        <v>19.74624856055754</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207799</v>
+        <v>25.2683997620781</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803538</v>
+        <v>26.64198465803551</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063098</v>
+        <v>26.0084978106311</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0230573254732</v>
+        <v>24.02305732547332</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333775</v>
+        <v>20.55587565333784</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839552</v>
+        <v>14.23182280839558</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916793</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562325</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
         <v>97.77787936116988</v>
@@ -35582,16 +35582,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916764</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415859</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.9630089646689</v>
@@ -35743,13 +35743,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116988</v>
@@ -35819,16 +35819,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062832</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766673</v>
@@ -35895,10 +35895,10 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184536</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916783</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207615</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062836</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766676</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36217,7 +36217,7 @@
         <v>238.8413159742731</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002367</v>
@@ -36357,31 +36357,31 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562393</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
         <v>162.099668741586</v>
@@ -36448,19 +36448,19 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36530,7 +36530,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320034</v>
@@ -36539,7 +36539,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646698</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
         <v>62.32672164233622</v>
@@ -36767,7 +36767,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320034</v>
@@ -36776,7 +36776,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562422</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
         <v>162.099668741586</v>
@@ -36919,19 +36919,19 @@
         <v>217.9630089646689</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116988</v>
@@ -37004,7 +37004,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320034</v>
@@ -37013,7 +37013,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
         <v>159.2391669125709</v>
@@ -37074,25 +37074,25 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002376</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
         <v>62.32672164233622</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766673</v>
@@ -37317,19 +37317,19 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562336</v>
@@ -37390,25 +37390,25 @@
         <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233713</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
         <v>97.77787936116988</v>
@@ -37478,7 +37478,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320034</v>
@@ -37487,7 +37487,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.8417569156242</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K39" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
         <v>62.32672164233622</v>
@@ -37715,7 +37715,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320034</v>
@@ -37724,7 +37724,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,16 +37794,16 @@
         <v>334.7730322994719</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37873,16 +37873,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233691</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38040,7 +38040,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -38110,16 +38110,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917236</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048098</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
